--- a/biology/Botanique/Galium_cometerhizon/Galium_cometerhizon.xlsx
+++ b/biology/Botanique/Galium_cometerhizon/Galium_cometerhizon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gaillet à racines chevelues (Galium cometerhizon) est une espèce de plante herbacée vivace du genre Galium et de la famille des rubiacées.
 </t>
@@ -511,10 +523,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce est décrite en 1818 par le naturaliste français Philippe-Isidore Picot de Lapeyrouse[1].
-Synonymes[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'espèce est décrite en 1818 par le naturaliste français Philippe-Isidore Picot de Lapeyrouse.
+Synonymes
 Galium megalospermum subsp. cometerhizon (Lapeyr.) Nyman
 Galium suaveolens Lapeyr.</t>
         </is>
@@ -544,9 +558,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Galium cometerhizon est présente dans les Pyrénées à la fois en Espagne et en France ainsi qu'en Corse[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Galium cometerhizon est présente dans les Pyrénées à la fois en Espagne et en France ainsi qu'en Corse,.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Galium cometerhizon est évaluée Espèce de préoccupation mineure (LC) au niveau de la France sur la Liste rouge de la flore vasculaire de France métropolitaine de 2019, Espèce quasi menacée (NT) pour la Corse et Espèce vulnérable (VU) au niveau de l'Aquitaine[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Galium cometerhizon est évaluée Espèce de préoccupation mineure (LC) au niveau de la France sur la Liste rouge de la flore vasculaire de France métropolitaine de 2019, Espèce quasi menacée (NT) pour la Corse et Espèce vulnérable (VU) au niveau de l'Aquitaine.
 </t>
         </is>
       </c>
